--- a/data_craw/quarter/income_statement_quarter/vib.xlsx
+++ b/data_craw/quarter/income_statement_quarter/vib.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91860000000</v>
+        <v>182390000000</v>
       </c>
       <c r="C4" t="n">
-        <v>70374000000</v>
+        <v>89936000000</v>
       </c>
       <c r="D4" t="n">
-        <v>37738000000</v>
+        <v>69973000000</v>
       </c>
       <c r="E4" t="n">
-        <v>52224000000</v>
+        <v>79687000000</v>
       </c>
       <c r="F4" t="n">
-        <v>182390000000</v>
+        <v>34111000000</v>
       </c>
       <c r="G4" t="n">
-        <v>89936000000</v>
+        <v>96633000000</v>
       </c>
       <c r="H4" t="n">
-        <v>69973000000</v>
+        <v>63158000000</v>
       </c>
       <c r="I4" t="n">
-        <v>79687000000</v>
+        <v>113957000000</v>
       </c>
       <c r="J4" t="n">
-        <v>34111000000</v>
+        <v>123794000000</v>
       </c>
       <c r="K4" t="n">
-        <v>96633000000</v>
+        <v>107457000000</v>
       </c>
       <c r="L4" t="n">
-        <v>63158000000</v>
+        <v>59321000000</v>
       </c>
       <c r="M4" t="n">
-        <v>113957000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>123794000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>107457000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>59321000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>179295000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12438000000</v>
+        <v>14090000000</v>
       </c>
       <c r="C5" t="n">
-        <v>18980000000</v>
+        <v>12945000000</v>
       </c>
       <c r="D5" t="n">
-        <v>29024000000</v>
+        <v>20167000000</v>
       </c>
       <c r="E5" t="n">
-        <v>23467000000</v>
+        <v>16915000000</v>
       </c>
       <c r="F5" t="n">
-        <v>14090000000</v>
+        <v>10611000000</v>
       </c>
       <c r="G5" t="n">
-        <v>12945000000</v>
+        <v>11721000000</v>
       </c>
       <c r="H5" t="n">
-        <v>20167000000</v>
+        <v>11920000000</v>
       </c>
       <c r="I5" t="n">
-        <v>16915000000</v>
+        <v>8465000000</v>
       </c>
       <c r="J5" t="n">
-        <v>10611000000</v>
+        <v>10362000000</v>
       </c>
       <c r="K5" t="n">
-        <v>11721000000</v>
+        <v>22737000000</v>
       </c>
       <c r="L5" t="n">
-        <v>11920000000</v>
+        <v>14085000000</v>
       </c>
       <c r="M5" t="n">
-        <v>8465000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10362000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>22737000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>14085000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>9133000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>876028000000</v>
+        <v>1334884000000</v>
       </c>
       <c r="C7" t="n">
-        <v>933409000000</v>
+        <v>1420557000000</v>
       </c>
       <c r="D7" t="n">
-        <v>860249000000</v>
+        <v>1446212000000</v>
       </c>
       <c r="E7" t="n">
-        <v>1024923000000</v>
+        <v>1717783000000</v>
       </c>
       <c r="F7" t="n">
-        <v>1334884000000</v>
+        <v>1108053000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1420557000000</v>
+        <v>2137704000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1446212000000</v>
+        <v>1823136000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1717783000000</v>
+        <v>2195308000000</v>
       </c>
       <c r="J7" t="n">
-        <v>1108053000000</v>
+        <v>2233407000000</v>
       </c>
       <c r="K7" t="n">
-        <v>2137704000000</v>
+        <v>2216919000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1823136000000</v>
+        <v>2155111000000</v>
       </c>
       <c r="M7" t="n">
-        <v>2195308000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2233407000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2216919000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2155111000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>2358400000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -786,30 +762,28 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>931</v>
+        <v>1220</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>714</v>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1220</v>
+        <v>1109</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>714</v>
+        <v>1099</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1109</v>
+        <v>970</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>1099</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>970</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
